--- a/Assesment/Assessment1.xlsx
+++ b/Assesment/Assessment1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Tops\Assesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Test case" sheetId="2" r:id="rId2"/>
-    <sheet name="Responsive_testing" sheetId="3" r:id="rId3"/>
-    <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Defect_report" sheetId="5" r:id="rId3"/>
+    <sheet name="Responsive_testing" sheetId="3" r:id="rId4"/>
+    <sheet name="Defect Report" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="710">
   <si>
     <t>Test Scenario - Whatsapp Web</t>
   </si>
@@ -911,21 +912,12 @@
     <t>Only one image captured</t>
   </si>
   <si>
-    <t>Camera does not turn on</t>
-  </si>
-  <si>
-    <t>Image not captured or shows error</t>
-  </si>
-  <si>
     <t>Video recording does not start</t>
   </si>
   <si>
     <t>Feed too dark or blurry</t>
   </si>
   <si>
-    <t>Switch between cameras not functional</t>
-  </si>
-  <si>
     <t>Verify status tab visibility</t>
   </si>
   <si>
@@ -1836,6 +1828,403 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/13HQwyVi6to8M2QE5dqCjz0YDuI6MQjwK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>DEFECT_SEVERITY</t>
+  </si>
+  <si>
+    <t>DEFECT_PRIORITY</t>
+  </si>
+  <si>
+    <t>TESTER_NAME</t>
+  </si>
+  <si>
+    <t>DEFECT_ID</t>
+  </si>
+  <si>
+    <t>1. Open WhatsApp
+2. Try to create a group without selecting any contacts</t>
+  </si>
+  <si>
+    <t>DEFECT_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation </t>
+  </si>
+  <si>
+    <t>Group creation succeeded without selecting contacts.</t>
+  </si>
+  <si>
+    <t>Viken</t>
+  </si>
+  <si>
+    <t>WhatsApp Group Functionality</t>
+  </si>
+  <si>
+    <t>Screensort/ Video recording link</t>
+  </si>
+  <si>
+    <t>Whatsapp web - camera and status Functionality</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>1. Open the Camera
+2. Hold the Capture button</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>viken</t>
+  </si>
+  <si>
+    <t>as Expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single merged table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Camera and Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> functionality test cases for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WhatsApp Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>TC_CAM_001</t>
+  </si>
+  <si>
+    <t>FUNC_CAM_2024_01</t>
+  </si>
+  <si>
+    <t>Verify the ability to capture photos/videos on WhatsApp Web.</t>
+  </si>
+  <si>
+    <t>A camera is connected and WhatsApp Web is logged in.</t>
+  </si>
+  <si>
+    <t>1. Open a chat.2. Click the camera icon.3. Capture a photo or video.4. Send it to a contact.</t>
+  </si>
+  <si>
+    <t>Camera input</t>
+  </si>
+  <si>
+    <t>Photo/video should be captured and sent without errors.</t>
+  </si>
+  <si>
+    <t>(To be filled)</t>
+  </si>
+  <si>
+    <t>(Pass/Fail)</t>
+  </si>
+  <si>
+    <t>TC_CAM_002</t>
+  </si>
+  <si>
+    <t>FUNC_CAM_2024_02</t>
+  </si>
+  <si>
+    <t>Test zoom level adjustment during photo/video capture.</t>
+  </si>
+  <si>
+    <t>1. Open a chat.2. Click the camera icon.3. Use the zoom feature while capturing a photo/video.4. Verify the zoom feature works correctly.</t>
+  </si>
+  <si>
+    <t>Users can adjust zoom levels seamlessly during capture.</t>
+  </si>
+  <si>
+    <t>TC_CAM_003</t>
+  </si>
+  <si>
+    <t>FUNC_CAM_2024_03</t>
+  </si>
+  <si>
+    <t>Verify camera orientation (landscape vs portrait mode).</t>
+  </si>
+  <si>
+    <t>1. Open a chat.2. Click the camera icon.3. Rotate the device or change orientation.4. Capture a photo or video.5. Verify the orientation is correct.</t>
+  </si>
+  <si>
+    <t>The camera should adjust and capture images/videos in both landscape and portrait orientations.</t>
+  </si>
+  <si>
+    <t>TC_CAM_004</t>
+  </si>
+  <si>
+    <t>FUNC_CAM_2024_04</t>
+  </si>
+  <si>
+    <t>Verify the video recording feature on WhatsApp Web.</t>
+  </si>
+  <si>
+    <t>1. Open a chat.2. Click the camera icon.3. Switch to video mode.4. Record a video.5. Send the video to a contact.6. Play the video to verify quality.</t>
+  </si>
+  <si>
+    <t>The video should be recorded correctly, with the ability to send and play it without quality loss or errors.</t>
+  </si>
+  <si>
+    <t>TC_CAM_005</t>
+  </si>
+  <si>
+    <t>FUNC_CAM_2024_05</t>
+  </si>
+  <si>
+    <t>Test camera settings (brightness, contrast, filters).</t>
+  </si>
+  <si>
+    <t>1. Open a chat.2. Click the camera icon.3. Apply a filter or adjust settings.4. Capture a photo.5. Verify settings take effect.</t>
+  </si>
+  <si>
+    <t>Filters and settings (brightness/contrast) should apply and be visible in the captured image.</t>
+  </si>
+  <si>
+    <t>TC_CAM_006</t>
+  </si>
+  <si>
+    <t>FUNC_CAM_2024_06</t>
+  </si>
+  <si>
+    <t>Test camera error handling for permission denial.</t>
+  </si>
+  <si>
+    <t>Camera permissions are denied for WhatsApp Web.</t>
+  </si>
+  <si>
+    <t>1. Open WhatsApp Web.2. Click the camera icon.3. Deny the camera permission.4. Verify error handling.</t>
+  </si>
+  <si>
+    <t>Permission denied</t>
+  </si>
+  <si>
+    <t>Error message should appear (e.g., "Camera access denied"), and the camera should not open.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_001</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_01</t>
+  </si>
+  <si>
+    <t>Verify posting a status update on WhatsApp Web.</t>
+  </si>
+  <si>
+    <t>User is logged into WhatsApp Web.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Create a status with text/media.3. Post the status.</t>
+  </si>
+  <si>
+    <t>Text/Photo/Video for Status</t>
+  </si>
+  <si>
+    <t>Status should appear in Status section and be viewable by selected contacts.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_002</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_02</t>
+  </si>
+  <si>
+    <t>Verify private audience selector for status updates.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Select contacts to view the status.3. Post the status.4. Verify visibility based on selection.</t>
+  </si>
+  <si>
+    <t>Selected contacts for status visibility</t>
+  </si>
+  <si>
+    <t>Users can select specific contacts to view the status and the selection is saved for future updates.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_003</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_03</t>
+  </si>
+  <si>
+    <t>Verify link preview generation in status updates.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Add a URL.3. Post status.4. Verify if a link preview is generated.</t>
+  </si>
+  <si>
+    <t>URL for status</t>
+  </si>
+  <si>
+    <t>Visual preview of the link should be generated automatically.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_004</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_04</t>
+  </si>
+  <si>
+    <t>Test cross-platform status sharing functionality.</t>
+  </si>
+  <si>
+    <t>User is logged into WhatsApp Web and Instagram is linked.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Post a status.3. Share the status on Instagram/Facebook.4. Verify if status is shared correctly on linked platforms.</t>
+  </si>
+  <si>
+    <t>Status content</t>
+  </si>
+  <si>
+    <t>Status should be shared seamlessly between WhatsApp and linked platforms like Instagram or Facebook.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_005</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_05</t>
+  </si>
+  <si>
+    <t>Verify emoji reactions to a status update.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. View a contact’s status.3. React using an emoji.4. Verify reaction is sent successfully.</t>
+  </si>
+  <si>
+    <t>Emoji reaction</t>
+  </si>
+  <si>
+    <t>Users can react to status updates with emojis and reactions are sent successfully.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_006</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_06</t>
+  </si>
+  <si>
+    <t>Verify the ability to delete a posted status.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Post a status.3. Click the "three dots" menu.4. Delete the status.5. Verify it is removed.</t>
+  </si>
+  <si>
+    <t>The status should be deleted successfully and no one should see it.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_007</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_07</t>
+  </si>
+  <si>
+    <t>Test for status expiration (24-hour automatic removal).</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Post a status.3. Wait 24 hours.4. Verify status is automatically removed.</t>
+  </si>
+  <si>
+    <t>Status should be automatically removed after 24 hours.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_008</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_08</t>
+  </si>
+  <si>
+    <t>Verify multi-status upload (multiple images/videos in a single post).</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Add multiple images/videos.3. Post status.4. Verify media uploads and plays in sequence.</t>
+  </si>
+  <si>
+    <t>Multiple images/videos</t>
+  </si>
+  <si>
+    <t>Multiple images/videos should upload in sequence and play correctly.</t>
+  </si>
+  <si>
+    <t>TC_STATUS_009</t>
+  </si>
+  <si>
+    <t>FUNC_STATUS_2024_09</t>
+  </si>
+  <si>
+    <t>Verify custom status text formatting.</t>
+  </si>
+  <si>
+    <t>1. Open Status tab.2. Add custom text.3. Apply text formatting.4. Post status.5. Verify formatting is visible.</t>
+  </si>
+  <si>
+    <t>Custom formatted text</t>
+  </si>
+  <si>
+    <t>Text formatting (bold, italic, strikethrough) should appear as expected in the posted status.</t>
+  </si>
+  <si>
+    <t>Let me know if you need more test cases or modifications!</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +2316,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1952,8 +2341,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2256,6 +2651,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2265,7 +2671,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2381,19 +2787,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,81 +2910,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2492,17 +2919,44 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2788,7 +3242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2801,20 +3255,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" customHeight="1" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1"/>
     <row r="3" spans="1:3" ht="47.4" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="62"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1"/>
     <row r="5" spans="1:3" ht="18.600000000000001" thickBot="1">
@@ -3692,7 +4146,7 @@
     <row r="91" spans="1:3" ht="15" thickBot="1"/>
     <row r="92" spans="1:3" ht="36.6" thickBot="1">
       <c r="B92" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1"/>
@@ -3712,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="28.8">
@@ -3723,10 +4177,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="28.8">
@@ -3734,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="28.8">
@@ -3745,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="28.8">
@@ -3756,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="28.8">
@@ -3767,10 +4221,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="28.8">
@@ -3778,10 +4232,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="28.8">
@@ -3789,10 +4243,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28.8">
@@ -3800,10 +4254,10 @@
         <v>9</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="28.8">
@@ -3811,10 +4265,10 @@
         <v>10</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="28.8">
@@ -3822,10 +4276,10 @@
         <v>11</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="28.8">
@@ -3833,10 +4287,10 @@
         <v>12</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="28.8">
@@ -3844,10 +4298,10 @@
         <v>13</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="28.8">
@@ -3855,10 +4309,10 @@
         <v>14</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="28.8">
@@ -3866,10 +4320,10 @@
         <v>15</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8">
@@ -3877,10 +4331,10 @@
         <v>16</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="28.8">
@@ -3888,10 +4342,10 @@
         <v>17</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.8">
@@ -3899,10 +4353,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="28.8">
@@ -3910,10 +4364,10 @@
         <v>19</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="28.8">
@@ -3921,10 +4375,10 @@
         <v>20</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="28.8">
@@ -3932,10 +4386,10 @@
         <v>21</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1">
@@ -3943,10 +4397,10 @@
         <v>22</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3961,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I113"/>
+  <dimension ref="A2:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3983,11 +4437,11 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="5" spans="1:9" ht="36">
       <c r="A5" s="18" t="s">
@@ -4505,7 +4959,7 @@
         <v>157</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>94</v>
@@ -4687,11 +5141,11 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1"/>
     <row r="31" spans="1:9" ht="53.4" customHeight="1" thickBot="1">
-      <c r="A31" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
+      <c r="A31" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1"/>
     <row r="33" spans="1:9" ht="36.6" thickBot="1">
@@ -4724,46 +5178,46 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.8">
-      <c r="A34" s="51">
+      <c r="A34" s="70">
         <v>1</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="63">
         <v>1</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="63" t="s">
         <v>259</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="65" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="43.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="43"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="66"/>
     </row>
     <row r="36" spans="1:9" ht="43.2">
       <c r="A36" s="29">
@@ -4795,46 +5249,46 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="48">
+      <c r="A37" s="71">
         <v>3</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="64">
         <v>3</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="64" t="s">
         <v>269</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="28.8">
-      <c r="A38" s="48"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="43"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="66"/>
     </row>
     <row r="39" spans="1:9" ht="43.2">
       <c r="A39" s="29">
@@ -4895,88 +5349,88 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="48">
+      <c r="A41" s="71">
         <v>6</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="64">
         <v>6</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="64" t="s">
         <v>285</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="43.2">
-      <c r="A42" s="48"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="43"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="66"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="48">
+      <c r="A43" s="71">
         <v>7</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="64">
         <v>7</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="64" t="s">
         <v>290</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="72" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="28.8">
-      <c r="A44" s="48"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="50"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="72"/>
     </row>
     <row r="45" spans="1:9" ht="43.2">
       <c r="A45" s="29">
@@ -5001,53 +5455,53 @@
         <v>266</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>158</v>
+        <v>612</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="48">
+      <c r="A46" s="71">
         <v>9</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="64">
         <v>3</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="64" t="s">
         <v>269</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="H46" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="I46" s="50" t="s">
+      <c r="H46" s="64" t="s">
+        <v>616</v>
+      </c>
+      <c r="I46" s="72" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="28.8">
-      <c r="A47" s="48"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="50"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="72"/>
     </row>
     <row r="48" spans="1:9" ht="43.2">
       <c r="A48" s="29">
@@ -5072,7 +5526,7 @@
         <v>277</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>158</v>
@@ -5101,1306 +5555,1487 @@
         <v>282</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I49" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="48">
+    <row r="50" spans="1:9" ht="28.8">
+      <c r="A50" s="71">
+        <v>13</v>
+      </c>
+      <c r="B50" s="64">
+        <v>8</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="I50" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="28.8">
+      <c r="A51" s="71"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="1:9" ht="28.8">
+      <c r="A52" s="71">
+        <v>14</v>
+      </c>
+      <c r="B52" s="64">
+        <v>9</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="28.8">
+      <c r="A53" s="71"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="66"/>
+    </row>
+    <row r="54" spans="1:9" ht="28.8">
+      <c r="A54" s="71">
+        <v>15</v>
+      </c>
+      <c r="B54" s="64">
+        <v>10</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F54" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="H54" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="I54" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8">
+      <c r="A55" s="71"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="66"/>
+    </row>
+    <row r="56" spans="1:9" ht="28.8">
+      <c r="A56" s="71">
+        <v>16</v>
+      </c>
+      <c r="B56" s="64">
+        <v>11</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="I56" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="28.8">
+      <c r="A57" s="71"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="66"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.8">
+      <c r="A58" s="71">
+        <v>17</v>
+      </c>
+      <c r="B58" s="64">
         <v>12</v>
       </c>
-      <c r="B50" s="41">
+      <c r="C58" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F58" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="G58" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="H58" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="I58" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="28.8">
+      <c r="A59" s="71"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="66"/>
+    </row>
+    <row r="60" spans="1:9" ht="43.2">
+      <c r="A60" s="29">
+        <v>18</v>
+      </c>
+      <c r="B60" s="5">
+        <v>13</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8">
+      <c r="A61" s="71">
+        <v>19</v>
+      </c>
+      <c r="B61" s="64">
+        <v>14</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F61" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="H61" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="I61" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28.8">
+      <c r="A62" s="71"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="66"/>
+    </row>
+    <row r="63" spans="1:9" ht="28.8">
+      <c r="A63" s="71">
+        <v>20</v>
+      </c>
+      <c r="B63" s="64">
+        <v>15</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="G63" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="H63" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="I63" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="28.8">
+      <c r="A64" s="71"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="66"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="71"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="66"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.8">
+      <c r="A66" s="71">
+        <v>21</v>
+      </c>
+      <c r="B66" s="64">
+        <v>16</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="H66" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="I66" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="28.8">
+      <c r="A67" s="71"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="66"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.8">
+      <c r="A68" s="71">
+        <v>22</v>
+      </c>
+      <c r="B68" s="64">
+        <v>17</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="G68" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="I68" s="72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="28.8">
+      <c r="A69" s="71"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="72"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="71">
+        <v>23</v>
+      </c>
+      <c r="B70" s="64">
+        <v>18</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="H70" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="I70" s="72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="43.2">
+      <c r="A71" s="71"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="72"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="71">
+        <v>24</v>
+      </c>
+      <c r="B72" s="64">
+        <v>19</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="H72" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="I72" s="72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28.8">
+      <c r="A73" s="71"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="72"/>
+    </row>
+    <row r="74" spans="1:9" ht="28.8">
+      <c r="A74" s="71">
+        <v>25</v>
+      </c>
+      <c r="B74" s="64">
+        <v>20</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F74" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="H74" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" s="72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="29.4" thickBot="1">
+      <c r="A75" s="73"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="75"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1"/>
+    <row r="77" spans="1:9" ht="72" customHeight="1" thickBot="1">
+      <c r="A77" s="77" t="s">
+        <v>549</v>
+      </c>
+      <c r="B77" s="78"/>
+      <c r="C77" s="79"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickBot="1"/>
+    <row r="79" spans="1:9" ht="36.6" thickBot="1">
+      <c r="A79" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="70">
+        <v>1</v>
+      </c>
+      <c r="B80" s="63">
+        <v>1</v>
+      </c>
+      <c r="C80" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>475</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="F80" s="63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G80" s="63" t="s">
+        <v>480</v>
+      </c>
+      <c r="H80" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="I80" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="28.8">
+      <c r="A81" s="71"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="66"/>
+    </row>
+    <row r="82" spans="1:9" ht="28.8">
+      <c r="A82" s="71"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="66"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="71">
+        <v>2</v>
+      </c>
+      <c r="B83" s="64">
+        <v>2</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F83" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="H83" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="I83" s="72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="57.6">
+      <c r="A84" s="71"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="72"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="71">
+        <v>3</v>
+      </c>
+      <c r="B85" s="64">
+        <v>3</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="G85" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="H85" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="I85" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="43.2">
+      <c r="A86" s="71"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="66"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="71">
+        <v>4</v>
+      </c>
+      <c r="B87" s="64">
+        <v>4</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F87" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="G87" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="H87" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="I87" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="28.8">
+      <c r="A88" s="71"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="66"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="71">
+        <v>5</v>
+      </c>
+      <c r="B89" s="64">
+        <v>5</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F89" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="G89" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="H89" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="I89" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="28.8">
+      <c r="A90" s="71"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="66"/>
+    </row>
+    <row r="91" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A91" s="71">
         <v>6</v>
       </c>
-      <c r="C50" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F50" s="41" t="s">
+      <c r="B91" s="64">
+        <v>6</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F91" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="43.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="50"/>
-    </row>
-    <row r="52" spans="1:9" ht="28.8">
-      <c r="A52" s="48">
+      <c r="G91" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="H91" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="I91" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="28.8">
+      <c r="A92" s="71"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="66"/>
+    </row>
+    <row r="93" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A93" s="71">
+        <v>7</v>
+      </c>
+      <c r="B93" s="64">
+        <v>7</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F93" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="H93" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="I93" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="28.8">
+      <c r="A94" s="71"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="66"/>
+    </row>
+    <row r="95" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A95" s="71">
+        <v>8</v>
+      </c>
+      <c r="B95" s="64">
+        <v>8</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F95" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="H95" s="64" t="s">
+        <v>516</v>
+      </c>
+      <c r="I95" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="28.8">
+      <c r="A96" s="71"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="66"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="71">
+        <v>9</v>
+      </c>
+      <c r="B97" s="64">
+        <v>9</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="H97" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="I97" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="28.8">
+      <c r="A98" s="71"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="66"/>
+    </row>
+    <row r="99" spans="1:9" ht="28.8">
+      <c r="A99" s="71"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="66"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A100" s="71">
+        <v>10</v>
+      </c>
+      <c r="B100" s="64">
+        <v>10</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F100" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="H100" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="I100" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="28.8">
+      <c r="A101" s="71"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="66"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="71">
+        <v>11</v>
+      </c>
+      <c r="B102" s="64">
+        <v>11</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F102" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G102" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="H102" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="I102" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="43.2">
+      <c r="A103" s="71"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="66"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="71">
+        <v>12</v>
+      </c>
+      <c r="B104" s="64">
+        <v>12</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F104" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="H104" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="I104" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="43.2">
+      <c r="A105" s="71"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="66"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="71">
         <v>13</v>
       </c>
-      <c r="B52" s="41">
-        <v>8</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" s="41" t="s">
+      <c r="B106" s="64">
+        <v>13</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F106" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="I52" s="43" t="s">
+      <c r="G106" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="H106" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="I106" s="66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="28.8">
-      <c r="A53" s="48"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="43"/>
-    </row>
-    <row r="54" spans="1:9" ht="28.8">
-      <c r="A54" s="48">
+    <row r="107" spans="1:9" ht="28.8">
+      <c r="A107" s="71"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="66"/>
+    </row>
+    <row r="108" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A108" s="71">
         <v>14</v>
       </c>
-      <c r="B54" s="41">
-        <v>9</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="G54" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="I54" s="43" t="s">
+      <c r="B108" s="64">
+        <v>14</v>
+      </c>
+      <c r="C108" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="D108" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F108" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="G108" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="H108" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="I108" s="66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8">
-      <c r="A55" s="48"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="43"/>
-    </row>
-    <row r="56" spans="1:9" ht="28.8">
-      <c r="A56" s="48">
+    <row r="109" spans="1:9">
+      <c r="A109" s="71"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="66"/>
+    </row>
+    <row r="110" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A110" s="71">
         <v>15</v>
       </c>
-      <c r="B56" s="41">
-        <v>10</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="G56" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="I56" s="43" t="s">
+      <c r="B110" s="64">
+        <v>15</v>
+      </c>
+      <c r="C110" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="D110" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F110" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="G110" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="H110" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="I110" s="66" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="28.8">
-      <c r="A57" s="48"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="43"/>
-    </row>
-    <row r="58" spans="1:9" ht="28.8">
-      <c r="A58" s="48">
-        <v>16</v>
-      </c>
-      <c r="B58" s="41">
-        <v>11</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="G58" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="28.8">
-      <c r="A59" s="48"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="43"/>
-    </row>
-    <row r="60" spans="1:9" ht="28.8">
-      <c r="A60" s="48">
-        <v>17</v>
-      </c>
-      <c r="B60" s="41">
-        <v>12</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="G60" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.8">
-      <c r="A61" s="48"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="43"/>
-    </row>
-    <row r="62" spans="1:9" ht="43.2">
-      <c r="A62" s="29">
-        <v>18</v>
-      </c>
-      <c r="B62" s="5">
-        <v>13</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I62" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.8">
-      <c r="A63" s="48">
-        <v>19</v>
-      </c>
-      <c r="B63" s="41">
-        <v>14</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G63" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.8">
-      <c r="A64" s="48"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="43"/>
-    </row>
-    <row r="65" spans="1:9" ht="28.8">
-      <c r="A65" s="48">
-        <v>20</v>
-      </c>
-      <c r="B65" s="41">
-        <v>15</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="28.8">
-      <c r="A66" s="48"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="48"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="43"/>
-    </row>
-    <row r="68" spans="1:9" ht="28.8">
-      <c r="A68" s="48">
-        <v>21</v>
-      </c>
-      <c r="B68" s="41">
-        <v>16</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="28.8">
-      <c r="A69" s="48"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="43"/>
-    </row>
-    <row r="70" spans="1:9" ht="28.8">
-      <c r="A70" s="48">
-        <v>22</v>
-      </c>
-      <c r="B70" s="41">
-        <v>17</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="I70" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="28.8">
-      <c r="A71" s="48"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="50"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="48">
-        <v>23</v>
-      </c>
-      <c r="B72" s="41">
-        <v>18</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G72" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="I72" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="43.2">
-      <c r="A73" s="48"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="50"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="48">
-        <v>24</v>
-      </c>
-      <c r="B74" s="41">
-        <v>19</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="I74" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="28.8">
-      <c r="A75" s="48"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="50"/>
-    </row>
-    <row r="76" spans="1:9" ht="28.8">
-      <c r="A76" s="48">
-        <v>25</v>
-      </c>
-      <c r="B76" s="41">
-        <v>20</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="G76" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="H76" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="I76" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="29.4" thickBot="1">
-      <c r="A77" s="49"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="54"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" thickBot="1"/>
-    <row r="79" spans="1:9" ht="72" customHeight="1" thickBot="1">
-      <c r="A79" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" thickBot="1"/>
-    <row r="81" spans="1:9" ht="36.6" thickBot="1">
-      <c r="A81" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I81" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="51">
-        <v>1</v>
-      </c>
-      <c r="B82" s="52">
-        <v>1</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="D82" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="F82" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="H82" s="52" t="s">
-        <v>484</v>
-      </c>
-      <c r="I82" s="53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="28.8">
-      <c r="A83" s="48"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="43"/>
-    </row>
-    <row r="84" spans="1:9" ht="28.8">
-      <c r="A84" s="48"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="43"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="48">
-        <v>2</v>
-      </c>
-      <c r="B85" s="41">
-        <v>2</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G85" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="I85" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="57.6">
-      <c r="A86" s="48"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="50"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="48">
-        <v>3</v>
-      </c>
-      <c r="B87" s="41">
-        <v>3</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F87" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="G87" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="H87" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I87" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="43.2">
-      <c r="A88" s="48"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="43"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="48">
-        <v>4</v>
-      </c>
-      <c r="B89" s="41">
-        <v>4</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F89" s="41" t="s">
-        <v>499</v>
-      </c>
-      <c r="G89" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="H89" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="I89" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.8">
-      <c r="A90" s="48"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="43"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="48">
-        <v>5</v>
-      </c>
-      <c r="B91" s="41">
-        <v>5</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F91" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="G91" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="H91" s="41" t="s">
-        <v>506</v>
-      </c>
-      <c r="I91" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="28.8">
-      <c r="A92" s="48"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="43"/>
-    </row>
-    <row r="93" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A93" s="48">
-        <v>6</v>
-      </c>
-      <c r="B93" s="41">
-        <v>6</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="H93" s="41" t="s">
-        <v>511</v>
-      </c>
-      <c r="I93" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="28.8">
-      <c r="A94" s="48"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="43"/>
-    </row>
-    <row r="95" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A95" s="48">
-        <v>7</v>
-      </c>
-      <c r="B95" s="41">
-        <v>7</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="D95" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="I95" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="28.8">
-      <c r="A96" s="48"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="43"/>
-    </row>
-    <row r="97" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A97" s="48">
-        <v>8</v>
-      </c>
-      <c r="B97" s="41">
-        <v>8</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>516</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F97" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G97" s="41" t="s">
-        <v>518</v>
-      </c>
-      <c r="H97" s="41" t="s">
-        <v>519</v>
-      </c>
-      <c r="I97" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="28.8">
-      <c r="A98" s="48"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="43"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="48">
-        <v>9</v>
-      </c>
-      <c r="B99" s="41">
-        <v>9</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>520</v>
-      </c>
-      <c r="D99" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F99" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="G99" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="I99" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="28.8">
-      <c r="A100" s="48"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="43"/>
-    </row>
-    <row r="101" spans="1:9" ht="28.8">
-      <c r="A101" s="48"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="43"/>
-    </row>
-    <row r="102" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A102" s="48">
-        <v>10</v>
-      </c>
-      <c r="B102" s="41">
-        <v>10</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F102" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" s="41" t="s">
-        <v>528</v>
-      </c>
-      <c r="H102" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="I102" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="28.8">
-      <c r="A103" s="48"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="43"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="48">
-        <v>11</v>
-      </c>
-      <c r="B104" s="41">
-        <v>11</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D104" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F104" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G104" s="41" t="s">
-        <v>533</v>
-      </c>
-      <c r="H104" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="I104" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="43.2">
-      <c r="A105" s="48"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="43"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="48">
-        <v>12</v>
-      </c>
-      <c r="B106" s="41">
-        <v>12</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="D106" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F106" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G106" s="41" t="s">
-        <v>537</v>
-      </c>
-      <c r="H106" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="I106" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="43.2">
-      <c r="A107" s="48"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="43"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="48">
-        <v>13</v>
-      </c>
-      <c r="B108" s="41">
-        <v>13</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F108" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G108" s="41" t="s">
-        <v>541</v>
-      </c>
-      <c r="H108" s="41" t="s">
-        <v>542</v>
-      </c>
-      <c r="I108" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="28.8">
-      <c r="A109" s="48"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="43"/>
-    </row>
-    <row r="110" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A110" s="48">
-        <v>14</v>
-      </c>
-      <c r="B110" s="41">
-        <v>14</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F110" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="G110" s="41" t="s">
+    <row r="111" spans="1:9" ht="29.4" thickBot="1">
+      <c r="A111" s="73"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="H110" s="41" t="s">
-        <v>547</v>
-      </c>
-      <c r="I110" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="48"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="43"/>
-    </row>
-    <row r="112" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A112" s="48">
-        <v>15</v>
-      </c>
-      <c r="B112" s="41">
-        <v>15</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>548</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F112" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>550</v>
-      </c>
-      <c r="H112" s="41" t="s">
-        <v>551</v>
-      </c>
-      <c r="I112" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="29.4" thickBot="1">
-      <c r="A113" s="49"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="44"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
+  <mergeCells count="259">
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="I37:I38"/>
@@ -6417,247 +7052,16 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1"/>
@@ -6668,10 +7072,288 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="16" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="17"/>
+    <col min="8" max="8" width="10.77734375" style="17" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="15.109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="15" style="17" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="17"/>
+    <col min="14" max="14" width="20.5546875" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="15" thickBot="1"/>
+    <row r="3" spans="1:15" ht="54.6" thickBot="1">
+      <c r="A3" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>602</v>
+      </c>
+      <c r="N3" s="83" t="s">
+        <v>610</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21.6" thickBot="1">
+      <c r="A4" s="85" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="1:15" ht="72.599999999999994" thickBot="1">
+      <c r="A5" s="88">
+        <v>1</v>
+      </c>
+      <c r="B5" s="89">
+        <v>2</v>
+      </c>
+      <c r="C5" s="90">
+        <v>2</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>483</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>485</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>607</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>608</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="O5" s="94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21.6" thickBot="1">
+      <c r="A6" s="85" t="s">
+        <v>611</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" ht="72.599999999999994" thickBot="1">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="41">
+        <v>7</v>
+      </c>
+      <c r="C7" s="39">
+        <v>7</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="O7" s="94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="17">
+        <v>5</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="17">
+        <v>6</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="17">
+        <v>7</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="17">
+        <v>8</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="17">
+        <v>9</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A4:O4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1"/>
+    <hyperlink ref="N7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6687,33 +7369,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1"/>
     <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1">
-      <c r="A2" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="A2" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="E3" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="F3" s="51" t="s">
         <v>368</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8">
@@ -6724,16 +7406,16 @@
         <v>91</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8">
@@ -6744,16 +7426,16 @@
         <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8">
@@ -6764,16 +7446,16 @@
         <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8">
@@ -6784,16 +7466,16 @@
         <v>91</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8">
@@ -6804,16 +7486,16 @@
         <v>91</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8">
@@ -6824,16 +7506,16 @@
         <v>91</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8">
@@ -6844,16 +7526,16 @@
         <v>91</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
@@ -6864,16 +7546,16 @@
         <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8">
@@ -6884,16 +7566,16 @@
         <v>91</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8">
@@ -6904,16 +7586,16 @@
         <v>91</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8">
@@ -6924,16 +7606,16 @@
         <v>91</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8">
@@ -6944,16 +7626,16 @@
         <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8">
@@ -6964,16 +7646,16 @@
         <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8">
@@ -6984,16 +7666,16 @@
         <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>430</v>
+        <v>426</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="86.4">
@@ -7004,16 +7686,16 @@
         <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>417</v>
+        <v>428</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="86.4">
@@ -7024,16 +7706,16 @@
         <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>418</v>
+        <v>428</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100.8">
@@ -7044,16 +7726,16 @@
         <v>91</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>419</v>
+        <v>428</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="86.4">
@@ -7064,16 +7746,16 @@
         <v>91</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>420</v>
+        <v>428</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" customHeight="1">
@@ -7084,16 +7766,16 @@
         <v>91</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>421</v>
+        <v>428</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100.8">
@@ -7104,16 +7786,16 @@
         <v>91</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>422</v>
+        <v>428</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="86.4">
@@ -7124,16 +7806,16 @@
         <v>91</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>423</v>
+        <v>428</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="86.4">
@@ -7144,16 +7826,16 @@
         <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>424</v>
+        <v>428</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100.8">
@@ -7164,16 +7846,16 @@
         <v>91</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="86.4">
@@ -7184,16 +7866,16 @@
         <v>91</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>426</v>
+        <v>428</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100.8">
@@ -7204,16 +7886,16 @@
         <v>91</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="86.4">
@@ -7224,16 +7906,16 @@
         <v>91</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>416</v>
+        <v>428</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100.8">
@@ -7244,16 +7926,16 @@
         <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F30" s="78" t="s">
         <v>428</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="101.4" thickBot="1">
@@ -7264,16 +7946,16 @@
         <v>91</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F31" s="79" t="s">
-        <v>415</v>
+        <v>428</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -7301,12 +7983,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7325,72 +8007,72 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="29.4" thickBot="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="53" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="E3" s="52" t="s">
         <v>554</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="F3" s="52" t="s">
         <v>555</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="G3" s="52" t="s">
         <v>556</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="H3" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="I3" s="54" t="s">
         <v>558</v>
       </c>
-      <c r="G3" s="70" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="72">
+      <c r="A4" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="C4" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="D4" s="28" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="72">
-      <c r="A4" s="60" t="s">
-        <v>589</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>564</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="86.4">
+      <c r="A5" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.4">
-      <c r="A5" s="62" t="s">
-        <v>590</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>568</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>265</v>
@@ -7399,56 +8081,56 @@
         <v>97</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72">
+      <c r="A6" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72">
-      <c r="A6" s="62" t="s">
-        <v>591</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>569</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>583</v>
+        <v>563</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="72">
-      <c r="A7" s="62" t="s">
-        <v>592</v>
+      <c r="A7" s="44" t="s">
+        <v>589</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>276</v>
@@ -7457,27 +8139,27 @@
         <v>97</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>581</v>
+        <v>563</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="86.4">
-      <c r="A8" s="62" t="s">
-        <v>593</v>
+      <c r="A8" s="44" t="s">
+        <v>590</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>281</v>
@@ -7486,162 +8168,685 @@
         <v>97</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>585</v>
+        <v>564</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="86.4">
-      <c r="A9" s="62" t="s">
-        <v>594</v>
+      <c r="A9" s="44" t="s">
+        <v>591</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>584</v>
+        <v>564</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="86.4">
-      <c r="A10" s="62" t="s">
-        <v>595</v>
+      <c r="A10" s="44" t="s">
+        <v>592</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>586</v>
+        <v>563</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="72">
-      <c r="A11" s="62" t="s">
-        <v>596</v>
+      <c r="A11" s="44" t="s">
+        <v>593</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>587</v>
+        <v>564</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="86.4">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>600</v>
-      </c>
       <c r="D12" s="27" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>588</v>
+        <v>564</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="87" thickBot="1">
-      <c r="A13" s="64" t="s">
-        <v>599</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>485</v>
+      <c r="A13" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>482</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>601</v>
+        <v>597</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>598</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>567</v>
+        <v>562</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>564</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>602</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8">
+      <c r="A17" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="95" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="129.6">
+      <c r="A18" s="84" t="s">
+        <v>619</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>620</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>623</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>625</v>
+      </c>
+      <c r="H18" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="201.6">
+      <c r="A19" s="84" t="s">
+        <v>628</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>630</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>631</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>632</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I19" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="201.6">
+      <c r="A20" s="84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>634</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>635</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>636</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>637</v>
+      </c>
+      <c r="H20" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I20" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="230.4">
+      <c r="A21" s="84" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>640</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>641</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>642</v>
+      </c>
+      <c r="H21" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="172.8">
+      <c r="A22" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>644</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>645</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>622</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>646</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>647</v>
+      </c>
+      <c r="H22" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="172.8">
+      <c r="A23" s="84" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>649</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>650</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>651</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>652</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>653</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>654</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="129.6">
+      <c r="A24" s="84" t="s">
+        <v>655</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>659</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>660</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>661</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I24" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="172.8">
+      <c r="A25" s="84" t="s">
+        <v>662</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>663</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>664</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>665</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>666</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>667</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I25" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="115.2">
+      <c r="A26" s="84" t="s">
+        <v>668</v>
+      </c>
+      <c r="B26" s="84" t="s">
+        <v>669</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>670</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>671</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>672</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="H26" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I26" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="201.6">
+      <c r="A27" s="84" t="s">
+        <v>674</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>675</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>676</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>677</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>678</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>679</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>680</v>
+      </c>
+      <c r="H27" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I27" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="158.4">
+      <c r="A28" s="84" t="s">
+        <v>681</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>682</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>683</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>684</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>685</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>686</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I28" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="158.4">
+      <c r="A29" s="84" t="s">
+        <v>687</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>688</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>689</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>690</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>679</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>691</v>
+      </c>
+      <c r="H29" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="144">
+      <c r="A30" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>693</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>695</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>679</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>696</v>
+      </c>
+      <c r="H30" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I30" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="144">
+      <c r="A31" s="84" t="s">
+        <v>697</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>698</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>699</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>700</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>701</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>702</v>
+      </c>
+      <c r="H31" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I31" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="158.4">
+      <c r="A32" s="84" t="s">
+        <v>703</v>
+      </c>
+      <c r="B32" s="84" t="s">
+        <v>704</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>705</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>658</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>706</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>707</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>708</v>
+      </c>
+      <c r="H32" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I32" s="84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>709</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
     </row>
   </sheetData>
   <hyperlinks>
